--- a/doc/Aufnahmen/Aufnahmebogen_Krater_5.xlsx
+++ b/doc/Aufnahmen/Aufnahmebogen_Krater_5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\data\Aufnahmen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\repo\doc\Aufnahmen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA5E040-AB8B-465F-8D3D-5A72E8935925}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81620BE-FCA1-4547-A200-7D87CD5F17E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18000" windowHeight="9360" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Pürckhauer" sheetId="1" r:id="rId1"/>
@@ -63,19 +63,6 @@
 Schläge</t>
   </si>
   <si>
-    <t xml:space="preserve">Plot ID:  5
-N: 
-E: 
-Datum:  19.09.2019
-Aufgenommen durch:
-Schneider, Simon
-Bemerkungen:
-</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Allgemeine Beschreibung des Kraters:
 - flache Böschung
 - flach (nicht tief)
@@ -85,6 +72,19 @@
 - Steinabbau ?
 - mehrere potentielle Altwege um en Krater
 - sehr kleine, sehr steinige Kraterform nahe daneben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot ID:  149
+N: 5631675
+E: 476659 
+Datum:  19.09.2019
+Aufgenommen durch:
+Schneider, Simon
+Bemerkungen:
+</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -937,8 +937,8 @@
   </sheetPr>
   <dimension ref="A1:AE100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V56" sqref="V56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +962,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -970,7 +970,7 @@
       <c r="E1" s="30"/>
       <c r="F1" s="31"/>
       <c r="G1" s="29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
@@ -1661,7 +1661,7 @@
       <c r="D31" s="11"/>
       <c r="E31" s="10"/>
       <c r="F31" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
